--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_16.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_16.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_9</t>
+          <t>model_1_16_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9850866878978959</v>
+        <v>0.9147301616699036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7247475658439515</v>
+        <v>0.7465338209616192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.720978792188629</v>
+        <v>0.6728340940785165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9931156784090108</v>
+        <v>0.3376891078730275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06258798059900919</v>
+        <v>0.3578592703314885</v>
       </c>
       <c r="G2" t="n">
-        <v>1.840614294622416</v>
+        <v>1.69492950633409</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9980426817620818</v>
+        <v>1.170253475311964</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04317274506142644</v>
+        <v>0.2631442409306456</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2867791795517467</v>
+        <v>1.538387418568283</v>
       </c>
       <c r="K2" t="n">
-        <v>0.250175899316879</v>
+        <v>0.5982133986559383</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008729743669524</v>
+        <v>0.7076462685825267</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2608264052863038</v>
+        <v>0.6236805815091712</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5423640450435</v>
+        <v>36.05523093899613</v>
       </c>
       <c r="O2" t="n">
-        <v>214.7692926614766</v>
+        <v>56.77611996175554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_8</t>
+          <t>model_1_16_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9848690551917215</v>
+        <v>0.9148899763468062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7245936617143665</v>
+        <v>0.7463016726727563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7204758986746558</v>
+        <v>0.6728338809340022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9932607960070466</v>
+        <v>0.3222614012481126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06350133851028303</v>
+        <v>0.3571885623204891</v>
       </c>
       <c r="G3" t="n">
-        <v>1.841643452245614</v>
+        <v>1.696481883010662</v>
       </c>
       <c r="H3" t="n">
-        <v>0.999841502702123</v>
+        <v>1.170254237717532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04226268806000313</v>
+        <v>0.2692738579992649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.286227742972639</v>
+        <v>1.541959944330961</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2519947192111038</v>
+        <v>0.597652543138979</v>
       </c>
       <c r="L3" t="n">
-        <v>1.008857138424358</v>
+        <v>0.7081942046176215</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2627226561089019</v>
+        <v>0.623095849211724</v>
       </c>
       <c r="N3" t="n">
-        <v>135.5133885888071</v>
+        <v>36.05898290174365</v>
       </c>
       <c r="O3" t="n">
-        <v>214.7403172052402</v>
+        <v>56.77987192450306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_7</t>
+          <t>model_1_16_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9846442878878205</v>
+        <v>0.9150275211622595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7244365409172365</v>
+        <v>0.7460194720471396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7199626741813234</v>
+        <v>0.6727865570629269</v>
       </c>
       <c r="E4" t="n">
-        <v>0.993399816503133</v>
+        <v>0.3054124438786252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06444463880196399</v>
+        <v>0.3566113161539671</v>
       </c>
       <c r="G4" t="n">
-        <v>1.842694119739497</v>
+        <v>1.698368959893575</v>
       </c>
       <c r="H4" t="n">
-        <v>1.001677276956307</v>
+        <v>1.170423512460373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04139086701612531</v>
+        <v>0.27596815542087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2857022733473404</v>
+        <v>1.545558655605924</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2538594863343972</v>
+        <v>0.597169419975577</v>
       </c>
       <c r="L4" t="n">
-        <v>1.008988709529081</v>
+        <v>0.7086657868420325</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2646668102292341</v>
+        <v>0.6225921584950532</v>
       </c>
       <c r="N4" t="n">
-        <v>135.4838974737798</v>
+        <v>36.06221768118123</v>
       </c>
       <c r="O4" t="n">
-        <v>214.7108260902128</v>
+        <v>56.78310670394064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_6</t>
+          <t>model_1_16_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9844122438807378</v>
+        <v>0.9151424322592162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7242761121400747</v>
+        <v>0.7456820718225607</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7194397064663857</v>
+        <v>0.6726980633712364</v>
       </c>
       <c r="E5" t="n">
-        <v>0.993532569141978</v>
+        <v>0.2868911280254555</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06541847786024826</v>
+        <v>0.3561290588621129</v>
       </c>
       <c r="G5" t="n">
-        <v>1.843766907711085</v>
+        <v>1.70062515674892</v>
       </c>
       <c r="H5" t="n">
-        <v>1.003547902149229</v>
+        <v>1.170740049264391</v>
       </c>
       <c r="I5" t="n">
-        <v>0.040558352765108</v>
+        <v>0.2833269013801388</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2852042953372232</v>
+        <v>1.549123089590473</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2557703615750822</v>
+        <v>0.5967654973790901</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009124540167373</v>
+        <v>0.7090597677458841</v>
       </c>
       <c r="M5" t="n">
-        <v>0.266659035384972</v>
+        <v>0.6221710400773989</v>
       </c>
       <c r="N5" t="n">
-        <v>135.4539010486707</v>
+        <v>36.06492417786561</v>
       </c>
       <c r="O5" t="n">
-        <v>214.6808296651038</v>
+        <v>56.78581320062501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_5</t>
+          <t>model_1_16_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9841728085225279</v>
+        <v>0.9152345077784094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.724112426821084</v>
+        <v>0.7452847296692319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7189061128261384</v>
+        <v>0.6725780972363793</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9936590716981163</v>
+        <v>0.2664672108226147</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06642333683803685</v>
+        <v>0.3557426376050873</v>
       </c>
       <c r="G6" t="n">
-        <v>1.844861472192877</v>
+        <v>1.703282185557822</v>
       </c>
       <c r="H6" t="n">
-        <v>1.005456535660856</v>
+        <v>1.171169161172739</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0397650338398373</v>
+        <v>0.2914415741917428</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2847333895831204</v>
+        <v>1.55258146935608</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2577272528042714</v>
+        <v>0.5964416464375097</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009264697450228</v>
+        <v>0.7093754552402609</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2686992355251112</v>
+        <v>0.6218334021307714</v>
       </c>
       <c r="N6" t="n">
-        <v>135.4234136516852</v>
+        <v>36.06709547528843</v>
       </c>
       <c r="O6" t="n">
-        <v>214.6503422681183</v>
+        <v>56.78798449804783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_4</t>
+          <t>model_1_16_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9839257716262458</v>
+        <v>0.915303710286515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7239454162507812</v>
+        <v>0.7448232815855295</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7183623801639057</v>
+        <v>0.6724383880589567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9937790860902317</v>
+        <v>0.243975380225797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06746009784497339</v>
+        <v>0.355452209482544</v>
       </c>
       <c r="G7" t="n">
-        <v>1.845978272645505</v>
+        <v>1.706367891018313</v>
       </c>
       <c r="H7" t="n">
-        <v>1.007401435866231</v>
+        <v>1.171668892799575</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03901240328851589</v>
+        <v>0.300377854358498</v>
       </c>
       <c r="J7" t="n">
-        <v>0.284289572559939</v>
+        <v>1.557052992203028</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2597308180500986</v>
+        <v>0.596198129385311</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009409304413905</v>
+        <v>0.7096127209823373</v>
       </c>
       <c r="M7" t="n">
-        <v>0.270788096691405</v>
+        <v>0.6215795180535109</v>
       </c>
       <c r="N7" t="n">
-        <v>135.39243799787</v>
+        <v>36.06872894122186</v>
       </c>
       <c r="O7" t="n">
-        <v>214.6193666143031</v>
+        <v>56.78961796398127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_3</t>
+          <t>model_1_16_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9836710830438723</v>
+        <v>0.9153500816510038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7237749806224152</v>
+        <v>0.7442937565021908</v>
       </c>
       <c r="D8" t="n">
-        <v>0.717808385071935</v>
+        <v>0.6722923969528833</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9938926471248578</v>
+        <v>0.2193443653378911</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06852897134156842</v>
+        <v>0.3552575987856643</v>
       </c>
       <c r="G8" t="n">
-        <v>1.847117976477172</v>
+        <v>1.709908827688837</v>
       </c>
       <c r="H8" t="n">
-        <v>1.00938304418773</v>
+        <v>1.172191094520949</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03830024283348386</v>
+        <v>0.3101640586819909</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2839748368313457</v>
+        <v>1.561351195592994</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2617803876182638</v>
+        <v>0.5960348972884594</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009558390413343</v>
+        <v>0.7097717085177275</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2729249206792809</v>
+        <v>0.6214093368283592</v>
       </c>
       <c r="N8" t="n">
-        <v>135.3609973676692</v>
+        <v>36.06982424453401</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5879259841022</v>
+        <v>56.79071326729342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_2</t>
+          <t>model_1_16_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9834085563584939</v>
+        <v>0.9153736445854253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7236011390309829</v>
+        <v>0.7436913744597802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7172435523299436</v>
+        <v>0.6721523488707559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9939996113312146</v>
+        <v>0.1926008962303694</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06963073967972756</v>
+        <v>0.3551587101905402</v>
       </c>
       <c r="G9" t="n">
-        <v>1.848280455999547</v>
+        <v>1.713936959180152</v>
       </c>
       <c r="H9" t="n">
-        <v>1.011403418154949</v>
+        <v>1.172692038390264</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03762945220426854</v>
+        <v>0.3207895669769713</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2838131107381882</v>
+        <v>1.565406900226182</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2638763719618101</v>
+        <v>0.5959519361412799</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009712064570638</v>
+        <v>0.709852495721458</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2751101354156177</v>
+        <v>0.6213228438533912</v>
       </c>
       <c r="N9" t="n">
-        <v>135.3290982941614</v>
+        <v>36.0703810369078</v>
       </c>
       <c r="O9" t="n">
-        <v>214.5560269105944</v>
+        <v>56.79127005966721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_1</t>
+          <t>model_1_16_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.983138044934035</v>
+        <v>0.9153743857112333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7234238312335685</v>
+        <v>0.7430091354155994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7166682649638187</v>
+        <v>0.6720280632534199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9940998726288343</v>
+        <v>0.1638667635154605</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07076601825969173</v>
+        <v>0.3551555998440675</v>
       </c>
       <c r="G10" t="n">
-        <v>1.849466114057285</v>
+        <v>1.71849909481001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.013461187706499</v>
+        <v>1.173136600836981</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03700069664942603</v>
+        <v>0.3322059903393936</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2836820112222027</v>
+        <v>1.569818264978004</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2660188306486812</v>
+        <v>0.5959493265740532</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009870412721541</v>
+        <v>0.7098550367242284</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2773438030042898</v>
+        <v>0.621320123191485</v>
       </c>
       <c r="N10" t="n">
-        <v>135.2967527231749</v>
+        <v>36.07039855223265</v>
       </c>
       <c r="O10" t="n">
-        <v>214.523681339608</v>
+        <v>56.79128757499206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_0</t>
+          <t>model_1_16_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.982859445391209</v>
+        <v>0.9153521342905538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.723243052668793</v>
+        <v>0.7422355125556057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7160822896075685</v>
+        <v>0.6719265266955815</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9941933451611548</v>
+        <v>0.1333186751695143</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07193524094221243</v>
+        <v>0.3552489842965791</v>
       </c>
       <c r="G11" t="n">
-        <v>1.850674981152347</v>
+        <v>1.723672314436994</v>
       </c>
       <c r="H11" t="n">
-        <v>1.015557187579003</v>
+        <v>1.173499791216941</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03641451458997628</v>
+        <v>0.3443431205228652</v>
       </c>
       <c r="J11" t="n">
-        <v>0.28358165775838</v>
+        <v>1.574610012254394</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2682074587743831</v>
+        <v>0.5960276707474067</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010033495380756</v>
+        <v>0.7097787461390417</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2796256055603877</v>
+        <v>0.621401802638493</v>
       </c>
       <c r="N11" t="n">
-        <v>135.2639779921107</v>
+        <v>36.06987274226389</v>
       </c>
       <c r="O11" t="n">
-        <v>214.4909066085437</v>
+        <v>56.7907617650233</v>
       </c>
     </row>
   </sheetData>
